--- a/medicine/Sexualité et sexologie/Entre_les_jambes/Entre_les_jambes.xlsx
+++ b/medicine/Sexualité et sexologie/Entre_les_jambes/Entre_les_jambes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Entre les jambes (Entre las piernas) est un thriller espagnol réalisé par Manuel Gómez Pereira, sorti en 1999. Victoria Abril et Javier Bardem interprètent les rôles principaux. L’histoire est basée sur le roman homonyme écrit par Joaquín Oristrell.
 </t>
@@ -511,7 +523,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Tout commence lors d’une réunion des sexopathes anonymes où Javier et Miranda se rencontrent. Javier, scénariste-producteur, avait un avenir brillant jusqu’au jour où il s’est livré à un jeu sexuel au téléphone qui a détruit son mariage et Miranda, animatrice d’une émission radio. Attirés l’un vers l’autre, ils succombent à leur envie en faisant l’amour dans une voiture abandonnée dans un parking souterrain dans lequel on trouvera plus tard un cadavre.
 Une enquête est vite lancée sur cet homicide par Félix, le mari de Miranda qui la soupçonne d’adultère.
@@ -543,7 +557,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Titre original : Entre Las Piernas
 Réalisation : Manuel Gómez Pereira
@@ -560,8 +576,8 @@
 Durée : 115 minutes
 Format : 2,35 : 1
 Classification :
-Royaume-Uni : interdit aux moins de 18 ans[1]
-France : interdit aux moins de 12 ans[2]
+Royaume-Uni : interdit aux moins de 18 ans
+France : interdit aux moins de 12 ans
 Espagne : interdit aux moins de 13 ans</t>
         </is>
       </c>
@@ -590,7 +606,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Victoria Abril : Miranda
 Javier Bardem (VF : Bernard Bollet) : Javier
@@ -636,7 +654,9 @@
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>En sélection officielle à la Berlinale 1999
 Choix des citoyens au Festival international du film fantastique de Puchon 1999</t>
